--- a/biology/Zoologie/Axymyia_japonica/Axymyia_japonica.xlsx
+++ b/biology/Zoologie/Axymyia_japonica/Axymyia_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axymyia japonica est une espèce d'insectes diptères de la famille des Axymyiidae. C'est l'une des deux seules espèces représentantes du genre Axymyia.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Axymyia japonica, une femelle, mesure 8 mm de longueur totale (ovipositeur compris) et présente des ailes mesurant 9 mm par 2,7 mm[2]. Sa teinte générale est brun rouge sombre et sa tête est noir grisâtre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Axymyia japonica, une femelle, mesure 8 mm de longueur totale (ovipositeur compris) et présente des ailes mesurant 9 mm par 2,7 mm. Sa teinte générale est brun rouge sombre et sa tête est noir grisâtre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Hiroshi Ishida, « A New Pachyneuridae from Japan (Diptera) », The Scientific Reports of the Saikyo University. Agriculture, Kyoto, Université préfectorale de Kyoto, vol. 5,‎ 1953, p. 117-118 (ISSN 0370-9329, lire en ligne)</t>
         </is>
